--- a/spreadsheet/macrofree/azurefirewall_sg_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/azurefirewall_sg_checklist.ja.xlsx
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>ポリシーの構造には、ルールとルール コレクション グループの数、ポリシーの合計サイズ、ソース/ターゲットの宛先など、制限があります。必ずポリシーを作成し、文書化されたしきい値を超えないようにしてください。</t>
+          <t>ポリシーの構造には、ルールとルール コレクション グループの数、ポリシーの合計サイズ、ソース/ターゲットの宛先など、制限があります。ポリシーを作成し、文書化されたしきい値を下回るようにしてください。</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>従来のハブ &amp; スポーク アーキテクチャでは、'SpoketoSpoke'、'SpoketoInternet'、'SpoketoHybrid' 接続のために Azure Firewall 経由のトラフィックを強制するように UDR を構成します。代わりに、Azure Virtual WAN では、ルーティングの意図とポリシーを構成して、ハブに統合された Azure Firewall インスタンスを介してプライベートまたはインターネットのトラフィックをリダイレクトします。</t>
+          <t>従来のハブ &amp; スポーク アーキテクチャでは、'Spoke-to-Spoke'、'Spoke-to-Internet'、および 'Spoke-to-Hybrid' 接続のために Azure Firewall 経由のトラフィックを強制するように UDR を構成します。代わりに、Azure Virtual WAN では、ルーティングの意図とポリシーを構成して、ハブに統合された Azure Firewall インスタンスを介してプライベートまたはインターネットのトラフィックをリダイレクトします。</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を IDPS モードのアラートと拒否で動作させる必要がある場合は、このページに記載されているパフォーマンスへの影響を慎重に検討してください。</t>
+          <t>Azure Firewall を IDPS モードのアラートと拒否で動作する必要がある場合は、「ファイアウォールのパフォーマンス」に記載されているように、パフォーマンスへの影響を慎重に検討してください。</t>
         </is>
       </c>
       <c r="E49" s="21" t="n"/>

--- a/spreadsheet/macrofree/azurefirewall_sg_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/azurefirewall_sg_checklist.ja.xlsx
@@ -1061,12 +1061,12 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall Manager を従来のハブ &amp; スポークまたは Azure Virtual WAN ネットワーク トポロジと共に使用して、Azure Firewall のインスタンスをデプロイおよび管理します。</t>
+          <t>Azure Firewall を複数の可用性ゾーンにデプロイします。</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク型で推移的なアーキテクチャを簡単に作成でき、トラフィックのガバナンスと保護のためのネイティブセキュリティサービスを利用できます。 ネットワーク トポロジの詳細については、Azure クラウド導入フレームワークのドキュメントを参照してください。</t>
+          <t>Azure Firewall を複数の可用性ゾーンにデプロイして、特定のレベルの回復性を維持します。1 つのゾーンで障害が発生した場合でも、別のゾーンは引き続きトラフィックを処理します。</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1082,7 +1082,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>833670b0-5f05-4810-96be-dd79df30775d</t>
+          <t>881f08f8-32f0-420d-b4f7-f0660a0402cb</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理します。Azure Firewall のすべてのインスタンスにポリシーを割り当てます。</t>
+          <t>Log Analytics ワークスペースで Azure Firewall メトリックを監視します。Azure Firewall の正常性状態を示すメトリック (スループット、ファイアウォールの正常性状態、SNAT ポートの使用率、AZFW 待機時間プローブ メトリックなど) を詳しく監視します。 Azure Service Health を使用して、Azure Firewall の正常性を監視します。</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall ポリシーは、中央の基本ポリシーをオーバーレイするために階層構造に配置できます。特定のリージョンの要件を満たすためのきめ細かなポリシーを許可します。ロールベースのアクセス制御 (RBAC) を通じて、増分ファイアウォール ポリシーをローカル セキュリティ チームに委任します。DNAT ルールや DNS 設定など、一部の設定はインスタンスごとに固有ですが、複数の特殊なポリシーが必要になる場合があります。</t>
+          <t>リソースメトリクスとサービスの正常性を監視して、サービスの状態が劣化するタイミングを検出し、障害を防ぐための予防的な対策を講じることができます。</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1116,7 +1116,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>5b0404e7-a3be-4103-aff9-903f9fe447d2</t>
+          <t>a61daca7-ba87-4a5f-8d72-6c4e61f1f8a1</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall クラシック ルールを既存のデプロイの Azure Firewall Manager ポリシーに移行します。</t>
+          <t>インターネットへのすべてのトラフィックを、インターネットに直接ではなく、指定された次ホップにルーティングする必要がある場合は、Azure Firewall を強制トンネリング モードで構成します。この推奨事項は Virtual WAN には適用されません。&lt;BR&gt;&lt;BR&gt; Azure Firewall には、インターネットに直接接続できる必要があります。AzureFirewallSubnet が Border Gateway Protocol を介してオンプレミス ネットワークへの既定のルートを学習する場合は、Azure Firewall を強制トンネリング モードで構成する必要があります。強制トンネリング機能を使用して、Azure Firewall Management サブネットに別の /26 アドレス空間を追加できます。サブネットに AzureFirewallManagementSubnet という名前を付けます。強制トンネリング モードで再構成できない既存の Azure Firewall インスタンスがある場合は、0.0.0.0/0 ルートを使用して UDR を作成します。NextHopType の値を Internet に設定します。インターネット接続を維持するには、UDR を AzureFirewallSubnet に関連付けます。 パブリック IP アドレスを [なし] に設定して、Azure Firewall を強制トンネリング モードで構成するときに、完全にプライベート データ プレーンをデプロイします。ただし、管理プレーンには、管理目的のみにパブリック IP が必要です。仮想ネットワークとオンプレミス ネットワークからの内部トラフィックでは、そのパブリック IP は使用されません。</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>既存のデプロイの場合は、Azure Firewall ルールを Azure Firewall Manager ポリシーに移行します。Azure Firewall Manager を使用して、ファイアウォールとポリシーを一元的に管理します。 詳細については、「Azure Firewall Premium への移行」を参照してください。</t>
+          <t>強制トンネリングを使用して、Azure リソースを直接インターネットに公開しないようにします。このアプローチにより、攻撃対象領域が縮小され、外部の脅威のリスクが最小限に抑えられます。企業のポリシーとコンプライアンス要件をより効果的に適用するには、インターネットへのすべてのトラフィックをオンプレミスのファイアウォールまたは NVA 経由でルーティングします。</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1150,7 +1150,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>182b6ed7-94f3-434c-be79-ce6a93d6560c</t>
+          <t>11c69324-ff8f-48aa-9e9e-9c954e29a121</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall の既知の問題の一覧を確認します。</t>
+          <t>階層構造でファイアウォールポリシーのルールを作成し、中央の基本ポリシーをオーバーレイします。詳細については、「Azure Firewall ポリシーを使用してルールを処理する」を参照してください。&lt;BR&gt;&lt;BR&gt; 最小特権アクセスのゼロトラスト原則に基づいてルールを作成する</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 製品グループは、この場所で既知の問題の最新の一覧を保持しています。このリストには、設計上の動作、開発中の修正、プラットフォームの制限、および可能な回避策または軽減策に関連する重要な情報が含まれています。</t>
+          <t>ルールを階層構造に整理して、きめ細かなポリシーが特定のリージョンの要件を満たすことができるようにします。各ポリシーには、特定の優先度、アクション、および処理順序を持つ宛先ネットワーク アドレス変換 (DNAT)、ネットワーク、およびアプリケーション ルールの異なるセットを含めることができます。</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>d34dc09b-f98f-47d4-92b7-79f77b9a755d</t>
+          <t>29a3b176-03b3-4273-b9f8-cdddee154009</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall ポリシーが Azure Firewall の制限と推奨事項に準拠していることを確認します。</t>
+          <t>Firewall Manager 内でサポートされているセキュリティパートナープロバイダを設定して、アウトバウンド接続を保護します。&lt;BR&gt;&lt;BR&gt; このシナリオでは、プロバイダーのインフラストラクチャに接続するために IPsec トンネルを使用するため、ハブに S2S VPN ゲートウェイを持つ Virtual WAN が必要です。マネージドセキュリティサービスプロバイダーは、追加のライセンス料を請求し、IPsec接続のスループットを制限する場合があります。また、Zscaler Cloud Connectorなどの代替ソリューションを使用することもできます。</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>ポリシーの構造には、ルールとルール コレクション グループの数、ポリシーの合計サイズ、ソース/ターゲットの宛先など、制限があります。ポリシーを作成し、文書化されたしきい値を下回るようにしてください。</t>
+          <t>Azure Firewall のセキュリティ パートナー プロバイダーが、インターネット トラフィックの高度な保護を提供する最高のクラウド セキュリティ オファリングを活用できるようにします。これらのプロバイダーは、ユーザー認識型の特殊なフィルタリング機能と包括的な脅威検出機能を提供し、全体的なセキュリティ体制を強化します。</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1218,7 +1218,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>86b20eea-4ed0-4f79-adf4-4ff5f7edc227</t>
+          <t>f03b413a-c06c-4f22-98ad-6798b74f825e</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を複数の可用性ゾーンにデプロイして、より高いサービス レベル アグリーメント (SLA) を実現します。</t>
+          <t>Azure Firewall DNS プロキシ構成を有効にします。&lt;BR&gt;&lt;BR&gt; また、DNS クエリの転送にカスタム DNS を使用するように Azure Firewall を構成します。</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall では、1 つの可用性ゾーンにデプロイされる場合と、複数のゾーンにデプロイされる場合で異なる SLA が提供されます。詳細については、「Azure Firewall の SLA」を参照してください。すべての Azure SLA の詳細については、「Azure サービスの SLA の概要」を参照してください。</t>
+          <t>この機能を有効にすると、仮想ネットワーク内のクライアントが DNS サーバーとして Azure Firewall にポイントされます。この機能は、直接アクセスされず、公開されていない内部 DNS インフラストラクチャを保護します。</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1252,7 +1252,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>7f303799-88af-49d0-ae85-73ce4bf33f76</t>
+          <t>98a53328-cf36-4d0e-b7dc-a15a8957ab3b</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>マルチリージョン環境では、リージョンごとに Azure Firewall インスタンスをデプロイします。</t>
+          <t>従来のハブ アンド スポーク アーキテクチャで、スポーク間、スポークからインターネット、およびスポークとハイブリッド間の接続のために、Azure Firewall 経由のトラフィックを強制するように UDR を構成します。&lt;BR&gt;&lt;BR&gt; Virtual WAN で、ルーティングの意図とポリシーを構成して、ハブに統合された Azure Firewall インスタンスを介してプライベート トラフィックまたはインターネット トラフィックをリダイレクトします。&lt;BR&gt;&lt;BR&gt; UDR を適用できず、Web トラフィックのリダイレクトのみが必要な場合は、送信パスで明示的なプロキシとして Azure Firewall を使用します。Azure Firewall をプロキシとして構成する場合は、Web ブラウザーなどの送信側アプリケーションでプロキシ設定を構成できます。</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>従来のハブ&amp;スポークアーキテクチャについては、この記事でマルチリージョンの詳細について説明します。セキュリティ保護付き仮想ハブ (Azure Virtual WAN) の場合、ルーティング インテントとポリシーを構成して、ハブ間通信とブランチ間通信をセキュリティで保護する必要があります。障害に対する耐性とフォールト トレラント性を考慮して設計されたワークロードの場合は、Azure Firewall と Azure Virtual Network のインスタンスをリージョン リソースと見なすことを忘れないでください。</t>
+          <t>ファイアウォールを介してトラフィックを送信してトラフィックを検査し、悪意のあるトラフィックを特定してブロックします。&lt;BR&gt;&lt;BR&gt; Azure Firewall を送信トラフィックの明示的なプロキシとして使用すると、Web トラフィックはファイアウォールのプライベート IP アドレスに到達し、UDR を使用せずにファイアウォールから直接送信されます。また、この機能により、既存のネットワークルートを変更せずに複数のファイアウォールを簡単に使用できます。</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1286,7 +1286,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>69dcdc93-55e9-454e-9128-b9996b089e2c</t>
+          <t>5a33a8c3-32ad-4df5-b10e-ae88d9341652</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall のメトリックとリソースの正常性状態を監視します。</t>
+          <t>ネットワークルールで FQDN フィルタリングを使用します。ネットワーク規則で FQDN を使用するには、Azure Firewall DNS プロキシ構成を有効にする必要があります。</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall の正常性状態の主要なメトリック インジケーター (スループット、ファイアウォールの正常性状態、SNAT ポート使用率、AZFW 待機時間プローブ メトリックなど) を綿密に監視します。さらに、Azure Firewall は Azure Resource Health と統合されるようになりました。Azure Firewall リソース正常性チェックを使用すると、Azure Firewall の正常性状態を表示し、Azure Firewall リソースに影響を与える可能性のあるサービスの問題に対処できるようになりました。</t>
+          <t>Azure Firewall ネットワーク ルールで FQDN を使用すると、管理者は複数の IP アドレスではなくドメイン名を管理できるため、管理が簡単になります。この動的な解決により、ドメイン IP が変更されたときにファイアウォール ルールが自動的に更新されます。</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1320,7 +1320,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>dbadd7db-ba2d-4b33-bf38-3251fe3fb6fb</t>
+          <t>468a142a-2b62-4379-90d1-46a7d351716f</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>インターネットへのすべてのトラフィックを、インターネットに直接アクセスするのではなく、指定された次ホップにルーティングする必要がある場合は、Azure Firewall を強制トンネリング モードで構成します (Azure Virtual WAN には適用されません)。</t>
+          <t>特定の IP アドレスの代わりに Azure Firewall サービス タグを使用して、Azure、Microsoft Dynamics 365、Microsoft 365 の特定のサービスへの選択的なアクセスを提供します。</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall には、インターネットに直接接続できる必要があります。AzureFirewallSubnet が Border Gateway プロトコルを介してオンプレミス ネットワークへの既定のルートを学習する場合は、Azure Firewall を強制トンネリング モードで構成する必要があります。強制トンネリング機能を使用すると、Azure Firewall Management サブネット用に別の /26 アドレス空間が必要になります。これが強制トンネリング モードで再構成できない既存の Azure Firewall インスタンスである場合は、0.0.0.0/0 ルートで UDR を作成します。NextHopType の値を Internet に設定します。AzureFirewallSubnet に関連付けて、インターネット接続を維持します。</t>
+          <t>ネットワーク ルールでサービス タグを使用すると、特定の IP アドレスではなくサービス名に基づいてアクセス制御を定義できるため、セキュリティ管理が簡単になります。Microsoft は、IP アドレスが変更されたときに、これらのタグを自動的に管理および更新します。この方法により、ファイアウォールルールが正確かつ効果的なままで、手動による介入がなくても維持されます。</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1354,7 +1354,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>55277728-2747-486c-be69-3428291856a4</t>
+          <t>d64d477e-8277-4f70-9727-8c1db0cd649c</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>強制トンネリング モードで Azure Firewall を構成するときに、完全にプライベート データ プレーンをデプロイするには、パブリック IP アドレスを [なし] に設定します (Azure Virtual WAN には適用されません)。</t>
+          <t>アプリケーションルールで FQDN タグを使用して、特定の Microsoft サービスへの選択的なアクセスを提供します。&lt;BR&gt;&lt;BR&gt; アプリケーション規則で FQDN タグを使用すると、Microsoft 365、Windows 365、Microsoft Intune などの特定の Azure サービスに対して、ファイアウォール経由で必要な送信ネットワーク トラフィックを許可できます。</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure Firewall インスタンスをデプロイするときに、強制トンネリング モードを有効にすると、パブリック IP アドレスを None に設定して、完全にプライベート データ プレーンをデプロイできます。ただし、管理プレーンには、管理目的のみにパブリック IP が必要です。仮想ネットワークとオンプレミス ネットワークからの内部トラフィックでは、そのパブリック IP は使用されません。強制トンネリングの詳細については、「Azure Firewall の強制トンネリング」を参照してください。</t>
+          <t>Azure Firewall アプリケーション規則で FQDN タグを使用して、既知の Microsoft サービスに関連付けられている FQDN のグループを表します。この方法により、ネットワーク セキュリティ規則の管理が簡略化されます。</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1388,7 +1388,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>7d9cd1f0-0f59-452e-be83-de6b49710ddc</t>
+          <t>f8f92e49-b7ed-40cc-ad7b-3431067dd488</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>最小特権アクセス基準に基づいてファイアウォールポリシーのルールを作成します。</t>
+          <t>Azure Firewall の脅威インテリジェンスをアラート モードと拒否モードで有効にします。</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall ポリシーは、中央の基本ポリシーをオーバーレイするために階層構造に配置できます。特定のリージョンの要件を満たすためのきめ細かなポリシーを許可します。各ポリシーには、特定の優先度、アクション、および処理順序を持つDNAT、ネットワーク、およびアプリケーションルールの異なるセットを含めることができます。最小特権アクセスゼロトラストの原則に基づいてルールを作成します。ルールの処理方法については、この記事で説明します。</t>
+          <t>脅威インテリジェンスを使用して、新たな脅威に対するリアルタイムの保護を提供し、サイバー攻撃のリスクを軽減します。この機能は、Microsoft の脅威インテリジェンス フィードを使用して、既知の悪意のある IP アドレス、ドメイン、URL からのトラフィックを自動的にアラートし、ブロックします。</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1422,7 +1422,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>c7600ea8-eb60-4eb1-9aee-c874efef69b7</t>
+          <t>ecce93c9-ffc9-498f-abdf-d29a618b8d1c</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1435,12 +1435,12 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>IDPSをアラートまたはアラートと拒否モードで有効にします。</t>
+          <t>IDPSをアラートまたはアラートと拒否モードで有効にします。この機能のパフォーマンスへの影響を考慮してください。</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>IDPS は、最も強力な Azure Firewall (Premium) セキュリティ機能の 1 つであり、有効にする必要があります。セキュリティとアプリケーションの要件に基づいて、パフォーマンスへの影響 (以下の「コスト」セクションを参照) を考慮して、アラート モードまたはアラートと拒否モードを選択できます。</t>
+          <t>Azure Firewall で IDPS フィルタリングを有効にすると、ネットワーク トラフィックのリアルタイムの監視と分析が提供され、悪意のあるアクティビティを検出して防止できます。この機能は、シグネチャベースの検出を使用して、既知の脅威を迅速に特定し、害を及ぼす前にブロックします。 詳細については、「不正使用の検出」を参照してください。</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1456,7 +1456,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>d8fc2b4d-a183-4949-82ff-c6130a9d87dc</t>
+          <t>754d917c-b22f-4fe7-92b1-d0d88b5b1873</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall (DNS) プロキシ構成を有効にします。</t>
+          <t>Azure Firewall Premium で TLS 検査を使用する場合は、内部のエンタープライズ証明機関 (CA) を使用して証明書を生成します。自己署名証明書は、テストと概念実証 (PoC) の目的でのみ使用してください。</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>この機能を有効にすると、VNet 内のクライアントは DNS サーバーとして Azure Firewall にポイントされます。直接アクセスされたり公開されたりしない内部DNSインフラストラクチャを保護します。Azure Firewall は、DNS クエリの転送に使用されるカスタム DNS を使用するようにも構成する必要があります。</t>
+          <t>TLS 検査を有効にすると、Azure Firewall Premium で TLS 接続が終了して検査され、HTTPS での悪意のあるアクティビティが検出、アラート、軽減されます。</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>9fa0a48c-c3cb-4fc2-a02b-1182a047e076</t>
+          <t>9e220953-da77-44f0-9e85-ccc7743e2d2a</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>ユーザー定義ルート (UDR) を構成して、Azure Firewall 経由のトラフィックを強制します。</t>
+          <t>Firewall Manager を使用して、Azure DDoS Protection プランを作成し、ハブ仮想ネットワークに関連付けます。このアプローチは Virtual WAN には適用されません。</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>従来のハブ &amp; スポーク アーキテクチャでは、'Spoke-to-Spoke'、'Spoke-to-Internet'、および 'Spoke-to-Hybrid' 接続のために Azure Firewall 経由のトラフィックを強制するように UDR を構成します。代わりに、Azure Virtual WAN では、ルーティングの意図とポリシーを構成して、ハブに統合された Azure Firewall インスタンスを介してプライベートまたはインターネットのトラフィックをリダイレクトします。</t>
+          <t>Azure DDoS Protection プランを構成して、ファイアウォール ポリシーと共に DDoS Protection を一元的に管理できるようにします。このアプローチにより、ネットワーク セキュリティの管理方法が合理化され、プロセスのデプロイと監視の方法が簡素化されます。</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1524,7 +1524,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a3f23112-5986-4fd2-9d64-edfb0363c08c</t>
+          <t>fe3488cd-72a6-4672-b26b-64b1a0e9f625</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>UDR を適用できず、Web トラフィックのリダイレクトのみが必要な場合は、Azure Firewall を明示的なプロキシとして使用することを検討してください</t>
+          <t>継続的に実行する必要のない Azure Firewall のデプロイを停止します。営業時間内のみ使用する開発環境またはテスト環境がある場合があります。詳細については、「Azure Firewall の割り当て解除と割り当て」を参照してください。</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>送信パスで明示的なプロキシ機能を有効にすると、プロキシとして構成された Azure Firewall を使用して、送信側の Web アプリケーション (Web ブラウザーなど) でプロキシ設定を構成できます。その結果、Web トラフィックはファイアウォールのプライベート IP アドレスに到達するため、UDR を使用せずにファイアウォールから直接送信されます。また、この機能により、既存のネットワークルートを変更することなく、複数のファイアウォールの使用が容易になります。</t>
+          <t>これらのデプロイは、オフピーク時やアイドル状態のときにシャットダウンして、不要な費用を削減しながら、重要な時期にセキュリティとパフォーマンスを維持します。</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1558,7 +1558,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>f62b7e3d-b86d-4f84-888d-ec7f97b34e96</t>
+          <t>463b7549-f012-4554-a6df-4ea62350cc52</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>サポートされているサードパーティ製の SaaS (Software as a Service) セキュリティプロバイダーを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でこれらのソリューションを設定します。</t>
+          <t>Azure Firewall が処理するトラフィックを定期的に確認し、元のワークロードの最適化を見つけます。上位フロー ログ (ファット フロー ログとも呼ばれます) には、ファイアウォール経由で最大のスループットに貢献した上位の接続が表示されます。</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>使い慣れた、最高のサードパーティであるSECaaS製品を使用して、ユーザーのインターネットアクセスを保護できます。このシナリオでは、IPSec トンネルを使用してプロバイダーのインフラストラクチャに接続するため、ハブに S2S VPN ゲートウェイを備えた Azure Virtual WAN が必要です。SECaaS プロバイダーは、追加のライセンス料金を請求し、IPSec 接続のスループットを制限する場合があります。ZScaler Cloud Connectorなどの代替ソリューションが存在し、より適している可能性があります。</t>
+          <t>ファイアウォール経由で最も多くのトラフィックを生成するワークロードを最適化して、トラフィックの量を減らし、ファイアウォールの負荷を減らし、データ処理と帯域幅のコストを最小限に抑えます。</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>1f1a4239-f908-4fb5-aff5-7d716d9227a1</t>
+          <t>ccd04d1a-611b-4c77-aef7-96d1ac1470d1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1605,12 +1605,12 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>ネットワークルールで完全修飾ドメイン名 (FQDN) フィルタリングを使用します。</t>
+          <t>未使用の Azure Firewall デプロイを特定して削除します。ファイアウォールのプライベート IP を指すサブネットに関連付けられている監視メトリックと UDR を分析します。また、環境とデプロイに関する他の検証と内部ドキュメントも考慮してください。たとえば、Azure Firewall の従来の NAT、ネットワーク、およびアプリケーションのルールを分析します。そして、あなたの設定を考慮してください。たとえば、DNS プロキシ設定を [無効] に構成できます。 詳細については、「Azure Firewall の監視」を参照してください。</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>FQDN は、Azure Firewall とファイアウォール ポリシーの DNS 解決に基づいて使用できます。この機能により、任意の TCP/UDP プロトコル (NTP、SSH、RDP など) で送信トラフィックをフィルタリングできます。ネットワーク規則で FQDN を使用するには、Azure Firewall DNS プロキシ構成を有効にする必要があります。そのしくみについては、「ネットワーク ルールでの Azure Firewall FQDN フィルタリング」を参照してください。</t>
+          <t>このアプローチを使用して、コスト効率の高いデプロイを経時的に検出し、未使用のリソースを排除することで、不要なコストを防ぐことができます。</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1626,7 +1626,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>cac3a2cc-688b-42c3-bfb5-e2b55270b8a0</t>
+          <t>9ddcb977-4f4d-4c98-a7bc-daad82bf79fb</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク ルールでサービス タグを使用して、特定の Microsoft サービスへの選択的なアクセスを有効にします。</t>
+          <t>Firewall Manager のポリシー、関連付け、および継承を慎重に確認して、コストを最適化します。ポリシーは、ファイアウォールの関連付けに基づいて請求されます。ファイアウォールの関連付けが 0 個または 1 個のポリシーは無料です。複数のファイアウォールの関連付けを持つポリシーは、固定料金で請求されます。詳細については、「Firewall Manager の料金表」を参照してください。</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>サービス タグは、セキュリティ ルール作成の複雑さを最小限に抑えるために、IP アドレス プレフィックスのグループを表します。ネットワークルールでサービスタグを使用すると、さまざまなIPアドレスを開かずに、Azure、Dynamics、およびOffice 365の特定のサービスへのアウトバウンドアクセスを有効にすることができます。Azure では、これらのタグと各サービスで使用される基になる IP アドレスとの間のマッピングが自動的に維持されます。Azure Firewall で使用できるサービス タグの一覧は、「Az Firewall サービス タグ」の一覧です。</t>
+          <t>Firewall Managerとそのポリシーを適切に使用して、運用コストを削減し、効率を高め、管理オーバーヘッドを削減します。</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1660,7 +1660,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>8e718b0b-3ae5-4a85-9e5e-7f12ac48ace8</t>
+          <t>a42cec48-b5d7-467a-8296-4864c6e9b413</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションルールでFQDNタグを使用して、特定のMicrosoftサービスへの選択的なアクセスを有効にします。</t>
+          <t>構成内のすべてのパブリック IP アドレスを確認し、使用しないアドレスの関連付けを解除して削除します。IP アドレスを削除する前に、送信元ネットワーク アドレス変換 (SNAT) ポートの使用状況を評価します。 詳細については、「Azure Firewall のログとメトリックを監視する」および「SNAT ポートの使用状況」を参照してください。</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>FQDN タグは、既知の Microsoft サービスに関連付けられている完全修飾ドメイン名 (FQDN) のグループを表します。アプリケーション規則で FQDN タグを使用すると、特定の Azure サービス (Office 365、Windows 365、Intune) のファイアウォール経由に必要な送信ネットワーク トラフィックを許可できます。</t>
+          <t>未使用のIPアドレスを削除してコストを削減します。</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1694,7 +1694,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>66db2147-74f7-4b4a-af65-a946369ae551</t>
+          <t>407db414-2814-4803-9b80-be5ff2a97950</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1707,12 +1707,12 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall Manager を使用して、DDoS 保護プランを作成し、ハブ仮想ネットワークに関連付けます (Azure Virtual WAN には適用されません)。</t>
+          <t>Azure Firewall の診断ログを有効にします。ファイアウォール ログまたはブックを使用して、Azure Firewall を監視します。アクティビティ ログを使用して、Azure Firewall リソースに対する操作を監査することもできます。 構造化されたファイアウォール ログ形式を使用します。以前の診断ログ形式は、それを必要とする既存のツールがある場合にのみ使用してください。両方のログ記録形式を同時に有効にしないでください。</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>DDoS 保護プランでは、DDoS 攻撃からファイアウォールを保護するための強化された軽減機能が提供されます。Azure Firewall Manager は、ファイアウォール インフラストラクチャと DDoS 保護プランを作成するための統合ツールです。詳細については、「Azure Firewall Manager を使用して Azure DDoS Protection プランを構成する」を参照してください。</t>
+          <t>診断ログを有効にして、Azure Firewall の監視ツールと戦略を最適化します。 構造化されたファイアウォールログを使用してログデータを構造化し、検索、フィルタリング、分析を容易にします。最新の監視ツールはこのタイプのログに基づいているため、多くの場合、これは前提条件です。</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1727,7 +1727,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>0c87e550-0780-401e-9208-5464b378a8e7</t>
+          <t>fb2c3215-9576-49d1-a936-e302ef9049c2</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1740,12 +1740,12 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>エンタープライズ PKI を使用して、TLS インスペクション用の証明書を生成します。</t>
+          <t>組み込みの Azure Firewall ブックを使用します。</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium では、TLS 検査機能を使用する場合は、運用環境に内部のエンタープライズ証明機関 (CA) を活用することをお勧めします。自己署名証明書は、テスト/PoCの目的でのみ使用する必要があります。</t>
+          <t>Azure Firewall ブックを使用して、Azure Firewall イベントから貴重な分析情報を抽出し、アプリケーションとネットワークのルールを分析し、URL、ポート、アドレス間のファイアウォール アクティビティに関する統計を調べます。</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1760,7 +1760,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>821132d4-1ba9-4709-9eb3-5906871b1721</t>
+          <t>913ed2e5-c63c-4325-8578-965c5c3c4b79</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1773,12 +1773,12 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall と Application Gateway のゼロトラスト構成ガイドを確認する</t>
+          <t>Azure Firewall のログとメトリックを監視し、Azure Firewall の容量に関するアラートを作成します。スループット、ファイアウォールの正常性状態、SNAT ポートの使用率、AZFW 待機時間プローブのメトリックを監視するアラートを作成します。</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ要件により、Webアプリケーションにゼロトラストアプローチ(検査と暗号化)を実装する必要がある場合は、このガイドに従うことをお勧めします。このドキュメントでは、従来のハブ アンド スポークと Virtual WAN の両方のシナリオで、Azure Firewall と Application Gateway を統合する方法について説明します。</t>
+          <t>主要なイベントのアラートを設定して、潜在的な問題が発生する前にオペレーターに通知し、中断を防ぎ、迅速な容量調整を開始します。</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1793,7 +1793,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>0ecf166e-e415-45bf-bece-87a32e76b096</t>
+          <t>79268d8a-5829-4fb3-a1c6-d7ee9c980cd4</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1806,12 +1806,12 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>適切な Azure Firewall SKU をデプロイします。</t>
+          <t>ポリシー分析ダッシュボードを定期的に確認して、潜在的な問題を特定します。</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall は、Basic、Standard、Premium の 3 つの異なる SKU でデプロイできます。Azure Firewall Premium は、機密性の高いアプリケーション (支払い処理など) をセキュリティで保護するために推奨されます。Azure Firewall Standard は、レイヤー 3 からレイヤー 7 のファイアウォールをお探しのお客様で、最大 30 Gbps のピーク トラフィック期間を処理するために自動スケーリングが必要な場合に推奨されます。Azure Firewall Basic は、250 Mbps のスループットが必要な SMB のお客様にお勧めします。必要に応じて、こちらに記載されているように、Standard と Premium の間でダウングレードまたはアップグレードが可能です。  詳細については、「ニーズに合わせて適切な Azure Firewall SKU を選択する」を参照してください。</t>
+          <t>ポリシー分析を使用して、Azure Firewall ポリシーの影響を分析します。ポリシーの制限を満たす、不適切なルール、不適切な IP グループの使用など、ポリシーの潜在的な問題を特定します。セキュリティ体制とルール処理のパフォーマンスを向上させるための推奨事項を取得します。</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1826,7 +1826,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>fbcc2c4d-8026-46a9-8fe7-bdb04dbd1f20</t>
+          <t>63b266a4-285f-4fd4-a0fb-b6bb4c1ce75b</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -1839,12 +1839,12 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>24x7 で実行する必要のない Azure Firewall のデプロイを停止します。</t>
+          <t>KQL クエリを理解して、Azure Firewall ログを使用して問題を迅速に分析し、トラブルシューティングできるようにします。Azure Firewall には、サンプル クエリが用意されています。</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>営業時間内のみ使用される開発環境またはテスト環境がある場合があります。詳細については、「Azure Firewall の割り当て解除と割り当て」を参照してください。</t>
+          <t>KQL クエリを使用すると、ファイアウォール内のイベントをすばやく特定し、トリガーされたルールや、要求を許可またはブロックするルールを確認できます。</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1859,7 +1859,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>4bf5b742-3a86-40a3-abce-a7991e9a0e78</t>
+          <t>37cc2cc2-5700-4e4b-bb0b-86e6acb11092</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall の同じインスタンスを複数のワークロードと Azure Virtual Network で共有します。</t>
+          <t>ポリシー分析ダッシュボードを使用して、Azure Firewall ポリシーを最適化する方法を特定します。</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>ハブ仮想ネットワークまたは Virtual WAN セキュア ハブで Azure Firewall の中央インスタンスを使用し、同じリージョンから同じハブに接続されている多くのスポーク仮想ネットワークで同じファイアウォールを共有できます。ハブスポークトポロジの一部として予期しないリージョン間トラフィックがないことを確認します。</t>
+          <t>ポリシー分析を使用して、ポリシーの制限を満たす、不適切なルール、不適切な IP グループの使用など、ポリシーの潜在的な問題を特定します。セキュリティ体制とルール処理のパフォーマンスを向上させるための推奨事項を取得します。</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>4468b60f-0f1d-4af5-98cd-b4f9fc3bd70f</t>
+          <t>e9cf81c7-6938-44e1-83fe-0c16af8214fd</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall によって処理されたトラフィックを定期的に確認し、発生元のワークロードの最適化を探します</t>
+          <t>頻繁に使用されるルールをグループの早い段階に配置して、大きなルール セットを持つ Azure Firewall ポリシーの待機時間を最適化します。 詳細については、「Azure Firewall ポリシーを使用してルールを処理する」を参照してください。</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>上位フロー ログ (業界では Fat Flows) は、ファイアウォールを介して最高のスループットに貢献している上位の接続を示します。Azure Firewall によって処理されるトラフィックを定期的に確認し、ファイアウォールを通過するトラフィックの量を減らすための最適化の可能性を検索することをお勧めします。</t>
+          <t>頻繁に使用するルールをルールセットの上位に配置して、処理の遅延を最適化します。Azure Firewall は、ルールの種類、継承、ルール コレクション グループの優先度、およびルール コレクションの優先度に基づいてルールを処理します。Azure Firewall は、優先度の高いルール コレクション グループを最初に処理します。ルール コレクション グループ内では、Azure Firewall は優先度が最も高いルール コレクションを最初に処理します。</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1927,7 +1927,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>3ec205f3-5201-4a2e-b82b-1c77c9ee139c</t>
+          <t>4413e944-e222-419c-bc01-54f518dace78</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -1940,12 +1940,12 @@
       <c r="B34" s="21" t="n"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>使用率の低い Azure Firewall インスタンスを確認します。未使用の Azure Firewall デプロイを特定して削除します。</t>
+          <t>IP グループを使用して IP アドレス範囲を要約し、一意の送信元または一意の宛先ネットワーク ルールの制限を超えないようにします。Azure Firewall では、ネットワーク ルールを作成するときに、IP グループを 1 つのアドレスとして扱います。</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>未使用の Azure Firewall デプロイを特定するには、まず、ファイアウォールのプライベート IP を指すサブネットに関連付けられている監視メトリックと UDR を分析します。その情報を、Azure Firewall のインスタンスに NAT、ネットワーク、アプリケーションのルール (クラシック) があるかどうか、DNS プロキシ設定が [無効] に構成されているかどうかなど、他の検証と組み合わせ、環境とデプロイに関する内部ドキュメントと組み合わせます。時間の経過とともにコスト効率の高いデプロイを検出できます。 ログとメトリックの監視の詳細については、「Azure Firewall のログとメトリックと SNAT ポートの使用率を監視する」を参照してください。</t>
+          <t>このアプローチにより、制限を超えずにカバーできる IP アドレスの数を効果的に増やすことができます。ルールごとに、Azure はポートに IP アドレスを乗算します。したがって、1 つのルールに 4 つの IP アドレス範囲と 5 つのポートがある場合、20 個のネットワーク ルールが消費されます。</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1961,7 +1961,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>514f4dbe-5294-44e1-95c5-923a199ff687</t>
+          <t>6acef044-ef2f-47b0-8463-5de890902930</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -1974,12 +1974,12 @@
       <c r="B35" s="21" t="n"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall Manager とそのポリシーを使用して、運用コストを削減し、効率を高め、管理オーバーヘッドを削減します。</t>
+          <t>Azure Firewall の Web カテゴリを使用して、パブリック インターネット サイトの長いリストを明示的に作成して維持する代わりに、送信アクセスを一括で許可または拒否します。</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Firewall Manager のポリシー、関連付け、および継承を慎重に確認してください。ポリシーは、ファイアウォールの関連付けに基づいて請求されます。ファイアウォールの関連付けが 0 個または 1 個のポリシーは無料です。複数のファイアウォールの関連付けを持つポリシーは、固定料金で請求されます。詳細については、「価格 - Azure Firewall Manager」を参照してください。</t>
+          <t>この機能は、Web コンテンツを動的に分類し、コンパクトなアプリケーションルールの作成を可能にするため、運用上のオーバーヘッドが削減されます。</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -1995,7 +1995,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>90f29560-d536-46bf-a719-f0f95f89105e</t>
+          <t>0a8a6e9c-57e9-40bd-8345-8b5abbcfa504</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2008,12 +2008,12 @@
       <c r="B36" s="21" t="n"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>未使用のパブリック IP アドレスを削除します。</t>
+          <t>アラート モードと拒否モードでの IDPS のパフォーマンスへの影響を評価します。詳細については、「Azure Firewall のパフォーマンス」を参照してください。</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>関連付けられているすべてのパブリック IP アドレスが使用中かどうかを検証します。使用していない場合は、関連付けを解除して削除します。IP アドレスを削除する前に、SNAT ポートの使用率を評価します。ファイアウォールに必要な数のパブリック IP のみを使用します。詳細については、「Azure Firewall のログとメトリックの監視」および「SNAT ポートの使用率」を参照してください。</t>
+          <t>アラートおよび拒否モードでIDPSを有効にして、悪意のあるネットワークアクティビティを検出して防止します。この機能により、パフォーマンスが低下する可能性があります。ワークロードへの影響を理解し、それに応じて計画を立てることができます。</t>
         </is>
       </c>
       <c r="E36" s="21" t="n"/>
@@ -2029,7 +2029,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>e81c61b3-0085-4029-82e3-d55513288f87</t>
+          <t>a281c1d2-e2da-458f-ad57-d67d19b8377e</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2042,12 +2042,12 @@
       <c r="B37" s="21" t="n"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>ログ記録の要件を確認します。</t>
+          <t>Azure Firewall のデプロイは、SNAT ポートの枯渇の影響を受けやすいデプロイに対して、少なくとも 5 つのパブリック IP アドレスで構成します。</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall には、表示されるすべてのトラフィックのメタデータを、Event Hubs を介して Log Analytics ワークスペース、ストレージ、またはサードパーティのソリューションに包括的に記録する機能があります。ただし、すべてのロギングソリューションでは、データの処理と保存にコストがかかります。非常に大量のコストがかかると、これらのコストは大きくなる可能性があるため、コスト効率の高いアプローチと Log Analytics の代替手段を検討し、コストを見積もる必要があります。すべてのロギングカテゴリのトラフィックメタデータをログに記録し、必要に応じて診断設定で変更する必要があるかどうかを検討します。</t>
+          <t>Azure Firewall では、各バックエンドの Azure Virtual Machine Scale Sets インスタンスで使用されるパブリック IP アドレスごとに 2,496 個のポートがサポートされています。この構成により、使用可能な SNAT ポートが 5 倍に増加します。 既定では、Azure Firewall は、フローの宛先 IP、宛先ポート、TCP または UDP プロトコルごとに 4,992 ポートをサポートする 2 つの Virtual Machine Scale Sets インスタンスをデプロイします。ファイアウォールは、最大 20 インスタンスまでスケールアップできます。</t>
         </is>
       </c>
       <c r="E37" s="21" t="n"/>
@@ -2063,7 +2063,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>a27d979a-c88c-4ce0-9310-9a69eba3460d</t>
+          <t>ffa8eeee-ff51-44ca-a416-275bcf54be52</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2074,32 +2074,15 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="n"/>
       <c r="B38" s="21" t="n"/>
-      <c r="C38" s="21" t="inlineStr">
-        <is>
-          <t>VNet 内のトラフィック制御に Azure Firewall を使用しないでください。</t>
-        </is>
-      </c>
-      <c r="D38" s="21" t="inlineStr">
-        <is>
-          <t>Azure Firewall は、VNet 間、VNet とオンプレミス ネットワーク間のトラフィック、インターネットへの送信トラフィック、および受信 HTTP/s トラフィックを制御するために使用する必要があります。VNet 内のトラフィック制御には、ネットワーク セキュリティ グループを使用することをお勧めします。</t>
-        </is>
-      </c>
+      <c r="C38" s="21" t="n"/>
+      <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="n"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="n"/>
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
-      <c r="L38" s="25" t="inlineStr">
-        <is>
-          <t>bce7644e-fefe-4d43-94ea-37af4d8743f9</t>
-        </is>
-      </c>
+      <c r="L38" s="25" t="n"/>
       <c r="M38" s="25" t="n"/>
       <c r="N38" s="25" t="n"/>
       <c r="O38" s="25" t="n"/>
@@ -2108,32 +2091,15 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="n"/>
       <c r="B39" s="21" t="n"/>
-      <c r="C39" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy 成果物の定期的なバックアップを維持します。</t>
-        </is>
-      </c>
-      <c r="D39" s="21" t="inlineStr">
-        <is>
-          <t>コードとしてのインフラストラクチャ (IaC) アプローチを使用して Azure Firewall とすべての依存関係を維持する場合は、Azure Firewall ポリシーのバックアップとバージョン管理が既に実施されている必要があります。そうでない場合は、外部ロジック アプリに基づくコンパニオン メカニズムをデプロイして、効果的なソリューションを自動化し、提供できます。</t>
-        </is>
-      </c>
+      <c r="C39" s="21" t="n"/>
+      <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="n"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="n"/>
       <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
-      <c r="L39" s="25" t="inlineStr">
-        <is>
-          <t>8b0afffb-17aa-4839-b93f-c01d990ad7c6</t>
-        </is>
-      </c>
+      <c r="L39" s="25" t="n"/>
       <c r="M39" s="25" t="n"/>
       <c r="N39" s="25" t="n"/>
       <c r="O39" s="25" t="n"/>
@@ -2142,32 +2108,15 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="n"/>
       <c r="B40" s="21" t="n"/>
-      <c r="C40" s="21" t="inlineStr">
-        <is>
-          <t>Azure Firewall の診断ログを有効にします。</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="inlineStr">
-        <is>
-          <t>診断ログは、Azure Firewall の多くの監視ツールと戦略の主要なコンポーネントであり、有効にする必要があります。Azure Firewall は、ファイアウォールのログまたはブックを使用して監視できます。アクティビティ ログを使用して、Azure Firewall リソースに対する操作を監査することもできます。</t>
-        </is>
-      </c>
+      <c r="C40" s="21" t="n"/>
+      <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="n"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="n"/>
       <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
-      <c r="L40" s="25" t="inlineStr">
-        <is>
-          <t>6d52b11a-0034-4824-84c4-7383182dc4df</t>
-        </is>
-      </c>
+      <c r="L40" s="25" t="n"/>
       <c r="M40" s="25" t="n"/>
       <c r="N40" s="25" t="n"/>
       <c r="O40" s="25" t="n"/>
@@ -2176,32 +2125,15 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="n"/>
       <c r="B41" s="21" t="n"/>
-      <c r="C41" s="21" t="inlineStr">
-        <is>
-          <t>構造化ファイアウォールログ形式を使用します。</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="inlineStr">
-        <is>
-          <t>構造化ファイアウォールログは、特定の新しい形式で整理されたログデータの一種です。事前定義されたスキーマを使用して、検索、フィルタリング、分析を容易にする方法でログデータを構造化します。最新の監視ツールはこのタイプのログに基づいているため、多くの場合、前提条件となります。以前の診断ログ形式は、前提条件を持つ既存のツールがある場合にのみ使用してください。両方のログ形式を同時に有効にしないでください。</t>
-        </is>
-      </c>
+      <c r="C41" s="21" t="n"/>
+      <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="n"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="n"/>
       <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
-      <c r="L41" s="25" t="inlineStr">
-        <is>
-          <t>99a0621d-2643-4e46-afb0-dd3e5111dedd</t>
-        </is>
-      </c>
+      <c r="L41" s="25" t="n"/>
       <c r="M41" s="25" t="n"/>
       <c r="N41" s="25" t="n"/>
       <c r="O41" s="25" t="n"/>
@@ -2210,32 +2142,15 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="n"/>
       <c r="B42" s="21" t="n"/>
-      <c r="C42" s="21" t="inlineStr">
-        <is>
-          <t>組み込みの Azure Firewall 監視ブックを使用します。</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="inlineStr">
-        <is>
-          <t>Azure Firewall ポータル エクスペリエンスに、監視セクション UI の下に新しいブックが含まれるようになり、個別のインストールは不要になりました。Azure Firewall ブックを使用すると、Azure Firewall イベントから貴重な分析情報を抽出し、アプリケーションとネットワークのルールを詳しく調べ、URL、ポート、アドレス間のファイアウォール アクティビティに関する統計を調べることができます。</t>
-        </is>
-      </c>
+      <c r="C42" s="21" t="n"/>
+      <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="n"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="n"/>
       <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
-      <c r="L42" s="25" t="inlineStr">
-        <is>
-          <t>8c18d9ea-2440-4125-a0cb-c1cf35c0be70</t>
-        </is>
-      </c>
+      <c r="L42" s="25" t="n"/>
       <c r="M42" s="25" t="n"/>
       <c r="N42" s="25" t="n"/>
       <c r="O42" s="25" t="n"/>
@@ -2244,32 +2159,15 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="n"/>
       <c r="B43" s="21" t="n"/>
-      <c r="C43" s="21" t="inlineStr">
-        <is>
-          <t>主要なメトリックを監視し、Azure Firewall 容量の使用率を示すインジケーターのアラートを作成します。</t>
-        </is>
-      </c>
-      <c r="D43" s="21" t="inlineStr">
-        <is>
-          <t>アラートは、少なくともスループット、ファイアウォールの正常性状態、SNAT ポートの使用率、AZFW 待機時間プローブのメトリックを監視するために作成する必要があります。ログとメトリックの監視については、「Azure Firewall のログとメトリックを監視する」を参照してください。</t>
-        </is>
-      </c>
+      <c r="C43" s="21" t="n"/>
+      <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="n"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
-      <c r="L43" s="25" t="inlineStr">
-        <is>
-          <t>05877204-1759-4b71-8938-4766b1b24fa7</t>
-        </is>
-      </c>
+      <c r="L43" s="25" t="n"/>
       <c r="M43" s="25" t="n"/>
       <c r="N43" s="25" t="n"/>
       <c r="O43" s="25" t="n"/>
@@ -2278,32 +2176,15 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="n"/>
       <c r="B44" s="21" t="n"/>
-      <c r="C44" s="21" t="inlineStr">
-        <is>
-          <t>Azure Firewall と Microsoft Defender for Cloud および Microsoft Sentinel との統合を構成します。</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="inlineStr">
-        <is>
-          <t>これらのツールが環境で使用できる場合は、Microsoft Defender for Cloud および Microsoft Sentinel ソリューションとの統合を活用することをお勧めします。Microsoft Defender for Cloud の統合により、すべての VNet にわたる Azure ネットワーク セキュリティや、Azure のさまざまなリージョンに分散した仮想ハブなど、ネットワーク インフラストラクチャとネットワーク セキュリティの全体的な状態を 1 か所で視覚化できます。Microsoft Sentinel との統合により、脅威の検出と防止の機能が実現します。</t>
-        </is>
-      </c>
+      <c r="C44" s="21" t="n"/>
+      <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="n"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="n"/>
       <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
-      <c r="L44" s="25" t="inlineStr">
-        <is>
-          <t>0dd715ab-c76e-49b9-9616-ccb36ddb293e</t>
-        </is>
-      </c>
+      <c r="L44" s="25" t="n"/>
       <c r="M44" s="25" t="n"/>
       <c r="N44" s="25" t="n"/>
       <c r="O44" s="25" t="n"/>
@@ -2312,31 +2193,14 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="n"/>
       <c r="B45" s="21" t="n"/>
-      <c r="C45" s="21" t="inlineStr">
-        <is>
-          <t>ポリシー分析ダッシュボードを定期的に確認して、潜在的な問題を特定します。</t>
-        </is>
-      </c>
-      <c r="D45" s="21" t="inlineStr">
-        <is>
-          <t>ポリシー分析は、Azure Firewall ポリシーの影響に関する分析情報を提供する新機能です。これは、ポリシーの潜在的な問題 (ポリシー制限のヒット、使用率の低いルール、冗長なルール、汎用すぎるルール、IP グループの使用に関する推奨事項) を特定するのに役立ち、セキュリティ体制とルール処理のパフォーマンスを向上させるための推奨事項を提供します。</t>
-        </is>
-      </c>
+      <c r="C45" s="21" t="n"/>
+      <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="n"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="n"/>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
-      <c r="L45" s="25" t="inlineStr">
-        <is>
-          <t>9e1b460f-0d41-40a1-9da7-89cda32f7190</t>
-        </is>
-      </c>
+      <c r="L45" s="25" t="n"/>
       <c r="M45" s="25" t="n"/>
       <c r="N45" s="25" t="n"/>
       <c r="O45" s="25" t="n"/>
@@ -2345,32 +2209,15 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="n"/>
       <c r="B46" s="21" t="n"/>
-      <c r="C46" s="21" t="inlineStr">
-        <is>
-          <t>KQL (Kusto 照会言語) クエリに慣れると、Azure Firewall ログを使用した迅速な分析とトラブルシューティングが可能になります。</t>
-        </is>
-      </c>
-      <c r="D46" s="21" t="inlineStr">
-        <is>
-          <t>Azure Firewall のサンプル クエリが用意されています。これにより、ファイアウォール内で何が起こっているかをすばやく特定し、トリガーされたルールや、リクエストを許可/ブロックしているルールを確認できます。</t>
-        </is>
-      </c>
+      <c r="C46" s="21" t="n"/>
+      <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="n"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="n"/>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
-      <c r="L46" s="25" t="inlineStr">
-        <is>
-          <t>8f1b00a0-2ba3-4dff-b808-072bbd316a88</t>
-        </is>
-      </c>
+      <c r="L46" s="25" t="n"/>
       <c r="M46" s="25" t="n"/>
       <c r="N46" s="25" t="n"/>
       <c r="O46" s="25" t="n"/>
@@ -2379,32 +2226,15 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="n"/>
       <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="inlineStr">
-        <is>
-          <t>ポリシー分析ダッシュボードを使用して、ファイアウォール ポリシーの潜在的な最適化を特定します。</t>
-        </is>
-      </c>
-      <c r="D47" s="21" t="inlineStr">
-        <is>
-          <t>ポリシー分析は、Azure Firewall ポリシーの影響に関する分析情報を提供する新機能です。これは、ポリシーの潜在的な問題 (ポリシー制限のヒット、使用率の低いルール、冗長なルール、汎用すぎるルール、IP グループの使用に関する推奨事項) を特定するのに役立ち、セキュリティ体制とルール処理のパフォーマンスを向上させるための推奨事項を提供します。</t>
-        </is>
-      </c>
+      <c r="C47" s="21" t="n"/>
+      <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="n"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="n"/>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="inlineStr">
-        <is>
-          <t>f3a64299-022d-492e-a095-72965cbb79b8</t>
-        </is>
-      </c>
+      <c r="L47" s="25" t="n"/>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
@@ -2413,31 +2243,14 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="n"/>
       <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="inlineStr">
-        <is>
-          <t>Web カテゴリで、送信アクセスを一括で許可または拒否することを検討してください。</t>
-        </is>
-      </c>
-      <c r="D48" s="21" t="inlineStr">
-        <is>
-          <t>パブリック インターネット サイトの長いリストを明示的に構築して維持する代わりに、Azure Firewall Web カテゴリの使用を検討してください。この機能は、Webコンテンツを動的に分類し、コンパクトなアプリケーションルールの作成を可能にします。</t>
-        </is>
-      </c>
+      <c r="C48" s="21" t="n"/>
+      <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="n"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="n"/>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="inlineStr">
-        <is>
-          <t>53e42e9b-6d25-4116-87ca-6c97252e1cd6</t>
-        </is>
-      </c>
+      <c r="L48" s="25" t="n"/>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
@@ -2446,31 +2259,14 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="n"/>
       <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="inlineStr">
-        <is>
-          <t>アラート モードと拒否モードでの IDPS のパフォーマンスへの影響を評価します。</t>
-        </is>
-      </c>
-      <c r="D49" s="21" t="inlineStr">
-        <is>
-          <t>Azure Firewall を IDPS モードのアラートと拒否で動作する必要がある場合は、「ファイアウォールのパフォーマンス」に記載されているように、パフォーマンスへの影響を慎重に検討してください。</t>
-        </is>
-      </c>
+      <c r="C49" s="21" t="n"/>
+      <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="n"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="n"/>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="inlineStr">
-        <is>
-          <t>4afedb20-a63a-4c17-907d-d8afc5cd1b43</t>
-        </is>
-      </c>
+      <c r="L49" s="25" t="n"/>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
@@ -2479,32 +2275,15 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="n"/>
       <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="inlineStr">
-        <is>
-          <t>SNAT ポートの枯渇の潜在的な問題を評価します。</t>
-        </is>
-      </c>
-      <c r="D50" s="21" t="inlineStr">
-        <is>
-          <t>Azure Firewall では現在、バックエンド仮想マシン スケール セット インスタンスごとにパブリック IP アドレスあたり 2496 ポートがサポートされています。既定では、2 つの Virtual Machine Scale Set インスタンスがあります。したがって、フローの宛先IP、宛先ポート、およびプロトコル(TCPまたはUDP)ごとに4992ポートがあります。ファイアウォールは、最大 20 インスタンスまでスケールアップできます。この制限を回避するには、SNAT の枯渇の影響を受けやすいデプロイに対して、少なくとも 5 つのパブリック IP アドレスを使用して Azure Firewall デプロイを構成します。</t>
-        </is>
-      </c>
+      <c r="C50" s="21" t="n"/>
+      <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="n"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="inlineStr">
-        <is>
-          <t>cdb16c9c-fe4e-41d6-bc0c-8519a606d37b</t>
-        </is>
-      </c>
+      <c r="L50" s="25" t="n"/>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
@@ -2513,32 +2292,15 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="n"/>
       <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="inlineStr">
-        <is>
-          <t>パフォーマンス テストの前に、Azure Firewall を適切にウォームアップします。</t>
-        </is>
-      </c>
-      <c r="D51" s="21" t="inlineStr">
-        <is>
-          <t>ロード テストに含まれない初期トラフィックは、テストの 20 分前に作成します。診断設定を使用して、スケールアップとスケールダウンのイベントをキャプチャします。Azure Load Testing サービスを使用して、初期トラフィックを生成できます。Azure Firewall インスタンスがインスタンスを最大までスケールアップできるようにします。</t>
-        </is>
-      </c>
+      <c r="C51" s="21" t="n"/>
+      <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="n"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="inlineStr">
-        <is>
-          <t>1859fa28-775d-433f-b189-6b250e51b441</t>
-        </is>
-      </c>
+      <c r="L51" s="25" t="n"/>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
@@ -2547,32 +2309,15 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="n"/>
       <c r="B52" s="21" t="n"/>
-      <c r="C52" s="21" t="inlineStr">
-        <is>
-          <t>Azure Firewall サブネット (AzureFirewallSubnet) を /26 アドレス空間で構成します。</t>
-        </is>
-      </c>
-      <c r="D52" s="21" t="inlineStr">
-        <is>
-          <t>Azure Firewall は、仮想ネットワーク内の専用デプロイです。仮想ネットワーク内では、Azure Firewall のインスタンスに専用のサブネットが必要です。Azure Firewall は、スケーリングに応じてより多くの容量をプロビジョニングします。サブネットの /26 アドレス空間により、ファイアウォールはスケーリングに対応するのに十分な IP アドレスを確保できます。Azure Firewall には、/26 より大きいサブネットは必要ありません。Azure Firewall サブネット名は AzureFirewallSubnet にする必要があります。</t>
-        </is>
-      </c>
+      <c r="C52" s="21" t="n"/>
+      <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="n"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="n"/>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="inlineStr">
-        <is>
-          <t>272b1122-494d-4baa-a328-928a89ebb0ad</t>
-        </is>
-      </c>
+      <c r="L52" s="25" t="n"/>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
@@ -2581,31 +2326,14 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="n"/>
       <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="inlineStr">
-        <is>
-          <t>不要な場合は、詳細ログを有効にしないでください</t>
-        </is>
-      </c>
-      <c r="D53" s="21" t="inlineStr">
-        <is>
-          <t>Azure Firewall には、常にアクティブに保つにはコストがかかる可能性のある高度なログ機能がいくつか用意されています。代わりに、トラブルシューティングの目的でのみ使用し、期間を制限し、不要になったら無効にする必要があります。たとえば、上位フローとフロー トレース ログは高価です は、Azure Firewall インフラストラクチャで CPU とストレージの過剰な使用を引き起こす可能性があります。</t>
-        </is>
-      </c>
+      <c r="C53" s="21" t="n"/>
+      <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="n"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="n"/>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="inlineStr">
-        <is>
-          <t>2b20c2ea-e6fd-4570-b86f-b20bfb695c6f</t>
-        </is>
-      </c>
+      <c r="L53" s="25" t="n"/>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
@@ -6589,7 +6317,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F38" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
